--- a/medicine/Soins infirmiers et profession infirmière/Association_des_infirmières_et_infirmiers_du_Canada/Association_des_infirmières_et_infirmiers_du_Canada.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Association_des_infirmières_et_infirmiers_du_Canada/Association_des_infirmières_et_infirmiers_du_Canada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Association_des_infirmi%C3%A8res_et_infirmiers_du_Canada</t>
+          <t>Association_des_infirmières_et_infirmiers_du_Canada</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Association des infirmières et infirmiers du Canada (AIIC) est une fédération de 11 associations provinciales et territoriales d’infirmières représentant plus de 133 700 infirmières autorisées et infirmières praticiennes du Canada.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Association_des_infirmi%C3%A8res_et_infirmiers_du_Canada</t>
+          <t>Association_des_infirmières_et_infirmiers_du_Canada</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Porte-parole national de la profession infirmière, l'AIIC soutient les infirmières et les infirmiers dans leur pratique et préconise des politiques favorables à la santé, ainsi qu’un système de santé de qualité, financé par l’état et à but non lucratif. Pour ce faire :
 Que l’AIIC fasse progresser la discipline des sciences infirmières dans l’intérêt du public.
